--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41726.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.98</v>
+        <v>4.2</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.94</v>
+        <v>3.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.79</v>
+        <v>4.98</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.97</v>
+        <v>2.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>228.42</v>
+        <v>22.84</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.08</v>
+        <v>4.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.47</v>
+        <v>2.85</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.15</v>
+        <v>4.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41726.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.15</v>
+        <v>1.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.49</v>
+        <v>2.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>97.98999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41726.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>81.94</v>
+        <v>8.19</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41726.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41726.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.46</v>
-      </c>
       <c r="AC6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41726.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>33.61</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>134.57</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.33</v>
+        <v>3.03</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41726.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.38</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>28.31</v>
+        <v>2.83</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41726.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.96</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41726.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.85</v>
+        <v>1.39</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>40.53</v>
+        <v>4.05</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.33</v>
+        <v>3.33</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>52.46</v>
+        <v>5.25</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>214.7</v>
+        <v>21.47</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>40.66</v>
+        <v>4.07</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.42</v>
+        <v>2.74</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>47.36</v>
+        <v>4.74</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41726.34027777778</v>
+        <v>44975.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.98</v>
+        <v>4.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.41</v>
+        <v>3.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41726.34722222222</v>
+        <v>44975.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.88</v>
+        <v>2.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>25.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.95</v>
+        <v>4.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.28</v>
+        <v>3.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.39</v>
+        <v>3.23</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41726.35416666666</v>
+        <v>44975.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.62</v>
+        <v>3.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.4</v>
+        <v>4.49</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.09</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.82</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.19</v>
+        <v>15.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.64</v>
+        <v>3.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.01</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.08</v>
+        <v>2.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.13</v>
+        <v>2.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.26</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.18</v>
+        <v>4.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41726.36111111111</v>
+        <v>44975.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.82</v>
+        <v>1.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.76</v>
+        <v>4.42</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.78</v>
+        <v>1.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41726.36805555555</v>
+        <v>44975.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.6</v>
+        <v>13.93</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.42</v>
+        <v>10.19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.29</v>
+        <v>30.28</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.04</v>
+        <v>24.7</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.47</v>
+        <v>10.96</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.62</v>
+        <v>39.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.72</v>
+        <v>16.87</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.31</v>
+        <v>7.44</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.45</v>
+        <v>10.98</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.52</v>
+        <v>12.15</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.54</v>
+        <v>12.79</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.15</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.47</v>
+        <v>10.9</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.59</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>6.36</v>
+        <v>158.61</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.29</v>
+        <v>30.38</v>
       </c>
       <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.43</v>
+        <v>35.77</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.24</v>
+        <v>5.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41726.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41726.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41726.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41726.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41726.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>69.39</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.82</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -447,18 +447,18 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44975.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44975.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.59</v>
+        <v>255.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.25</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>6</v>
+        <v>59.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44975.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.02</v>
+        <v>30.22</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.49</v>
+        <v>44.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.86</v>
+        <v>158.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.08</v>
+        <v>40.82</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44975.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.22</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>1.65</v>
       </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44975.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>22.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.884</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2</v>
+        <v>2.001</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>47.88</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.89</v>
+        <v>38.892</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.39</v>
+        <v>17.391</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.95</v>
+        <v>65.95399999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.68</v>
+        <v>11.682</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>17.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.166</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>20.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.56</v>
+        <v>5.555</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.46</v>
+        <v>24.464</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.76</v>
+        <v>14.756</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.591</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.243</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>255.93</v>
+        <v>255.926</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.36</v>
+        <v>48.364</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.25</v>
+        <v>32.248</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.79</v>
+        <v>16.791</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.895</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.34</v>
+        <v>32.335</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.648</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.99</v>
+        <v>19.992</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.97</v>
+        <v>59.968</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.96</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="4">
@@ -863,22 +863,22 @@
         <v>44975.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10</v>
+        <v>10.001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.238</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.22</v>
+        <v>30.222</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.48</v>
+        <v>24.477</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.964</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>44.88</v>
@@ -887,79 +887,79 @@
         <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.367</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.81</v>
+        <v>10.806</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>12.12</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.7</v>
+        <v>12.703</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.504</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>15.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.64</v>
+        <v>158.642</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.57</v>
+        <v>30.568</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.34</v>
+        <v>20.338</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.59</v>
+        <v>10.594</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.85</v>
+        <v>1.854</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.4</v>
+        <v>21.396</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8</v>
+        <v>7.997</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.645</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.82</v>
+        <v>40.821</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.58</v>
+        <v>5.576</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44975.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44975.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.324</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.903</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.33</v>
+        <v>7.332</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.86</v>
+        <v>17.859</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.236</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.237</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.11</v>
+        <v>3.105</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.76</v>
+        <v>3.757</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.89</v>
+        <v>3.889</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.096</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.768</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.22</v>
+        <v>44.222</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.344</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.22</v>
+        <v>3.223</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.128</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.58</v>
+        <v>2.577</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.006</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.88</v>
+        <v>3.884</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.51</v>
+        <v>16.508</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44975.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.61</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_294.xlsx
+++ b/DATA_goal/Junction_Flooding_294.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44975.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.324</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.903</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.356999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.332</v>
+        <v>7.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.404</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.859</v>
+        <v>17.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.236</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.237</v>
+        <v>2.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.105</v>
+        <v>3.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.757</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.889</v>
+        <v>3.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.096</v>
+        <v>1.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.768</v>
+        <v>4.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.073</v>
+        <v>3.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.707</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.222</v>
+        <v>44.22</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.715</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.344</v>
+        <v>6.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.223</v>
+        <v>3.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.128</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.577</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.006</v>
+        <v>3.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.884</v>
+        <v>3.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.508</v>
+        <v>16.51</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.907</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44975.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
